--- a/data/tabela.xlsx
+++ b/data/tabela.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/rafael_venetikides_pucpr_edu_br/Documents/Compiladores/Parser/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_6099675A13267F43CC98DEBD4C2CFFBE52FC6464" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6B16C43-1218-DE4D-8E1B-A5A1E7F53769}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Table 1</t>
   </si>
@@ -164,11 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -180,7 +186,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -321,52 +327,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,26 +382,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -594,7 +659,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -612,7 +677,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +731,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +756,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +781,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +881,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +906,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,9 +919,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -873,7 +944,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -891,7 +962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +987,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +1012,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,9 +1200,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1145,7 +1222,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1163,7 +1240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1394,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1419,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1444,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1469,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,661 +1482,645 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3359" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1719" style="1" customWidth="1"/>
-    <col min="6" max="12" width="15.3359" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.2266" style="1" customWidth="1"/>
-    <col min="14" max="15" width="19.4219" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6797" style="1" customWidth="1"/>
-    <col min="17" max="19" width="19.4219" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="19.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="19.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s" s="4">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="24.65" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" ht="24.4" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" t="s" s="11">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" ht="24.4" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" t="s" s="11">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" t="s" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s" s="11">
+      <c r="M6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s" s="11">
+      <c r="N6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s" s="11">
+      <c r="O6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" t="s" s="11">
+      <c r="P6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R6" t="s" s="11">
+      <c r="Q6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s" s="11">
+      <c r="R6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="24.4" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s" s="11">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" ht="24.4" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" t="s" s="11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s" s="11">
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s" s="11">
+      <c r="H8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J8" t="s" s="11">
+      <c r="I8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="J8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L8" t="s" s="11">
+      <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" ht="24.4" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" t="s" s="11">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s" s="11">
+      <c r="M9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O9" t="s" s="11">
+      <c r="N9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P9" t="s" s="11">
+      <c r="O9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" t="s" s="11">
+      <c r="P9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R9" t="s" s="11">
+      <c r="Q9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S9" t="s" s="11">
+      <c r="R9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+    <row r="10" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/tabela.xlsx
+++ b/data/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/rafael_venetikides_pucpr_edu_br/Documents/Compiladores/Parser/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_6099675A13267F43CC98DEBD4C2CFFBE52FC6464" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6B16C43-1218-DE4D-8E1B-A5A1E7F53769}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6099675A13267F43CC98DEBD4C2CFFBE52FC6464" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14AF27C5-4D9A-124A-A1DE-4060F9969C1B}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,44 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Table 1</t>
   </si>
   <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>NUMBER</t>
   </si>
   <si>
     <t>MEM</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>RES</t>
   </si>
   <si>
@@ -79,102 +52,94 @@
     <t>S</t>
   </si>
   <si>
-    <t>S -&gt; Expr</t>
-  </si>
-  <si>
     <t>Expr</t>
   </si>
   <si>
-    <t>Expr -&gt; ( RPN )</t>
-  </si>
-  <si>
-    <t>RPN</t>
-  </si>
-  <si>
-    <t>RPN → Operand RPN'</t>
-  </si>
-  <si>
-    <t>RPN → MEM</t>
-  </si>
-  <si>
-    <t>RPN’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPN′ → Operand Operator
+    <t>Operand</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>OperatorUnary</t>
+  </si>
+  <si>
+    <t>OperatorUnary → RES</t>
+  </si>
+  <si>
+    <t>OperatorUnary → MEM</t>
+  </si>
+  <si>
+    <t>OperatorUnary → IF</t>
+  </si>
+  <si>
+    <t>OperatorUnary → THEN</t>
+  </si>
+  <si>
+    <t>OperatorUnary → ELSE</t>
+  </si>
+  <si>
+    <t>OperatorUnary → FOR</t>
+  </si>
+  <si>
+    <t>OperatorUnary → DO</t>
+  </si>
+  <si>
+    <t>OPEN_PAREN</t>
+  </si>
+  <si>
+    <t>CLOSE_PAREN</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>S → Expr</t>
+  </si>
+  <si>
+    <t>Expr → ( RPNExpr )</t>
+  </si>
+  <si>
+    <t>RPNExpr</t>
+  </si>
+  <si>
+    <t>RPNExpr → Operand RPNExpre’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPNExpr → Operand RPNExpr’
 </t>
   </si>
   <si>
-    <t>RPN′ → Operand Operator</t>
-  </si>
-  <si>
-    <t>RPN′ → OperatorUnary</t>
-  </si>
-  <si>
-    <t>Operand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operand → Expr
+    <t>RPNExpr’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPNExpr’ → Operand Operator
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Operand → NUMBER
-</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator → +
-</t>
-  </si>
-  <si>
-    <t>Operator → -</t>
-  </si>
-  <si>
-    <t>Operator → *</t>
-  </si>
-  <si>
-    <t>Operator → /</t>
-  </si>
-  <si>
-    <t>Operator → |</t>
-  </si>
-  <si>
-    <t>Operator → %</t>
-  </si>
-  <si>
-    <t>Operator → ^</t>
-  </si>
-  <si>
-    <t>OperatorUnary</t>
-  </si>
-  <si>
-    <t>OperatorUnary → RES</t>
-  </si>
-  <si>
-    <t>OperatorUnary → MEM</t>
-  </si>
-  <si>
-    <t>OperatorUnary → IF</t>
-  </si>
-  <si>
-    <t>OperatorUnary → THEN</t>
-  </si>
-  <si>
-    <t>OperatorUnary → ELSE</t>
-  </si>
-  <si>
-    <t>OperatorUnary → FOR</t>
-  </si>
-  <si>
-    <t>OperatorUnary → DO</t>
+    <t>RPNExpr’ → OperatorUnary</t>
+  </si>
+  <si>
+    <t>Operand → Expr</t>
+  </si>
+  <si>
+    <t>Operand → NUMBER</t>
+  </si>
+  <si>
+    <t>Operator → OPERATOR</t>
+  </si>
+  <si>
+    <t>RPNExpr → MEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -184,12 +149,20 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -331,7 +304,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,11 +1479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1550,63 +1526,53 @@
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1627,10 +1593,10 @@
     </row>
     <row r="4" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1651,16 +1617,18 @@
     </row>
     <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1668,9 +1636,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -1679,54 +1645,54 @@
     </row>
     <row r="6" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1745,33 +1711,21 @@
     </row>
     <row r="8" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1781,39 +1735,39 @@
     </row>
     <row r="9" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
